--- a/EEB_samples.xlsx
+++ b/EEB_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tartuulikool.sharepoint.com/sites/PRG1836/Shared Documents/General/Estonian Environmental Board (EEB)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmpuu\andmeteadus2023⭐\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="8_{3D58B75C-5788-4983-BECF-58860F71397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D87833F-E2F5-4B6B-BEE5-5A7F040366EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED5125F-0053-45A2-8889-D15CB99BEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8D8DC704-9D02-4388-A01B-1D5C9E89B5A9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" xr2:uid="{8D8DC704-9D02-4388-A01B-1D5C9E89B5A9}"/>
   </bookViews>
   <sheets>
     <sheet name="full_table" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="273">
   <si>
     <t>new_code</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>sampling_area(code_on_bag)</t>
+  </si>
+  <si>
+    <t>new_ID</t>
   </si>
 </sst>
 </file>
@@ -1266,29 +1269,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S202" sqref="S202"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1330,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1375,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1459,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1501,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1543,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1585,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1666,7 +1669,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1711,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +1795,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1834,7 +1837,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1879,7 @@
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1960,7 +1963,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2002,7 +2005,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +2047,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -2086,7 +2089,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2128,7 +2131,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -2170,7 +2173,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2212,7 +2215,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -2254,7 +2257,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2296,7 +2299,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -2338,7 +2341,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2380,7 +2383,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2422,7 +2425,7 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2506,7 +2509,7 @@
       </c>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2590,7 +2593,7 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2632,7 +2635,7 @@
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +2677,7 @@
       </c>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -2716,7 +2719,7 @@
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -2758,7 +2761,7 @@
       </c>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -2800,7 +2803,7 @@
       </c>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
@@ -2842,7 +2845,7 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>75</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>76</v>
       </c>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
@@ -3234,7 +3237,7 @@
       </c>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>78</v>
       </c>
@@ -3276,7 +3279,7 @@
       </c>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -3402,7 +3405,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>83</v>
       </c>
@@ -3444,7 +3447,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
@@ -3486,7 +3489,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>85</v>
       </c>
@@ -3528,7 +3531,7 @@
       </c>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
@@ -3570,7 +3573,7 @@
       </c>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
@@ -3612,7 +3615,7 @@
       </c>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
@@ -4050,7 +4053,7 @@
       </c>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>102</v>
       </c>
@@ -4092,7 +4095,7 @@
       </c>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>103</v>
       </c>
@@ -4134,7 +4137,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -4218,7 +4221,7 @@
       </c>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
@@ -4260,7 +4263,7 @@
       </c>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>107</v>
       </c>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>109</v>
       </c>
@@ -4386,7 +4389,7 @@
       </c>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>110</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>113</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>114</v>
       </c>
@@ -4560,7 +4563,7 @@
       </c>
       <c r="N77" s="3"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>115</v>
       </c>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>116</v>
       </c>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>117</v>
       </c>
@@ -4686,7 +4689,7 @@
       </c>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>118</v>
       </c>
@@ -4728,7 +4731,7 @@
       </c>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>119</v>
       </c>
@@ -4770,7 +4773,7 @@
       </c>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>120</v>
       </c>
@@ -4812,7 +4815,7 @@
       </c>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>124</v>
       </c>
@@ -4854,7 +4857,7 @@
       </c>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>125</v>
       </c>
@@ -4896,7 +4899,7 @@
       </c>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>126</v>
       </c>
@@ -4938,7 +4941,7 @@
       </c>
       <c r="N86" s="3"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>127</v>
       </c>
@@ -4980,7 +4983,7 @@
       </c>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>128</v>
       </c>
@@ -5022,7 +5025,7 @@
       </c>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>129</v>
       </c>
@@ -5064,7 +5067,7 @@
       </c>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>130</v>
       </c>
@@ -5106,7 +5109,7 @@
       </c>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>131</v>
       </c>
@@ -5148,7 +5151,7 @@
       </c>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>132</v>
       </c>
@@ -5190,7 +5193,7 @@
       </c>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>133</v>
       </c>
@@ -5232,7 +5235,7 @@
       </c>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>134</v>
       </c>
@@ -5274,7 +5277,7 @@
       </c>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>135</v>
       </c>
@@ -5316,7 +5319,7 @@
       </c>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>136</v>
       </c>
@@ -5358,7 +5361,7 @@
       </c>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>137</v>
       </c>
@@ -5400,7 +5403,7 @@
       </c>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>138</v>
       </c>
@@ -5442,7 +5445,7 @@
       </c>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>139</v>
       </c>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>140</v>
       </c>
@@ -5526,7 +5529,7 @@
       </c>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>141</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>143</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>144</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>145</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>146</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>147</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>148</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>149</v>
       </c>
@@ -5876,7 +5879,7 @@
       </c>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
@@ -5918,7 +5921,7 @@
       </c>
       <c r="N109" s="3"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>151</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>153</v>
       </c>
@@ -6004,7 +6007,7 @@
       </c>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>154</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>155</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>156</v>
       </c>
@@ -6134,7 +6137,7 @@
       </c>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>157</v>
       </c>
@@ -6176,7 +6179,7 @@
       </c>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>158</v>
       </c>
@@ -6218,7 +6221,7 @@
       </c>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>159</v>
       </c>
@@ -6260,7 +6263,7 @@
       </c>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>160</v>
       </c>
@@ -6302,7 +6305,7 @@
       </c>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>161</v>
       </c>
@@ -6344,7 +6347,7 @@
       </c>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>164</v>
       </c>
@@ -6386,7 +6389,7 @@
       </c>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>165</v>
       </c>
@@ -6428,7 +6431,7 @@
       </c>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>166</v>
       </c>
@@ -6470,7 +6473,7 @@
       </c>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>167</v>
       </c>
@@ -6512,7 +6515,7 @@
       </c>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>168</v>
       </c>
@@ -6554,7 +6557,7 @@
       </c>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>169</v>
       </c>
@@ -6596,7 +6599,7 @@
       </c>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>170</v>
       </c>
@@ -6638,7 +6641,7 @@
       </c>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>171</v>
       </c>
@@ -6680,7 +6683,7 @@
       </c>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>172</v>
       </c>
@@ -6722,7 +6725,7 @@
       </c>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>174</v>
       </c>
@@ -6764,7 +6767,7 @@
       </c>
       <c r="N129" s="3"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>175</v>
       </c>
@@ -6806,7 +6809,7 @@
       </c>
       <c r="N130" s="3"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>176</v>
       </c>
@@ -6848,7 +6851,7 @@
       </c>
       <c r="N131" s="3"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>177</v>
       </c>
@@ -6890,7 +6893,7 @@
       </c>
       <c r="N132" s="3"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>178</v>
       </c>
@@ -6932,7 +6935,7 @@
       </c>
       <c r="N133" s="3"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>179</v>
       </c>
@@ -6974,7 +6977,7 @@
       </c>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>180</v>
       </c>
@@ -7016,7 +7019,7 @@
       </c>
       <c r="N135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>181</v>
       </c>
@@ -7058,7 +7061,7 @@
       </c>
       <c r="N136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>182</v>
       </c>
@@ -7100,7 +7103,7 @@
       </c>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>184</v>
       </c>
@@ -7142,7 +7145,7 @@
       </c>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>185</v>
       </c>
@@ -7184,7 +7187,7 @@
       </c>
       <c r="N139" s="3"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>186</v>
       </c>
@@ -7226,7 +7229,7 @@
       </c>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>187</v>
       </c>
@@ -7268,7 +7271,7 @@
       </c>
       <c r="N141" s="3"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>188</v>
       </c>
@@ -7310,7 +7313,7 @@
       </c>
       <c r="N142" s="3"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>189</v>
       </c>
@@ -7352,7 +7355,7 @@
       </c>
       <c r="N143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>190</v>
       </c>
@@ -7394,7 +7397,7 @@
       </c>
       <c r="N144" s="3"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>191</v>
       </c>
@@ -7436,7 +7439,7 @@
       </c>
       <c r="N145" s="3"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>192</v>
       </c>
@@ -7478,7 +7481,7 @@
       </c>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>194</v>
       </c>
@@ -7520,7 +7523,7 @@
       </c>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>195</v>
       </c>
@@ -7562,7 +7565,7 @@
       </c>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>196</v>
       </c>
@@ -7604,7 +7607,7 @@
       </c>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>197</v>
       </c>
@@ -7646,7 +7649,7 @@
       </c>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>198</v>
       </c>
@@ -7688,7 +7691,7 @@
       </c>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>199</v>
       </c>
@@ -7730,7 +7733,7 @@
       </c>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>200</v>
       </c>
@@ -7772,7 +7775,7 @@
       </c>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>201</v>
       </c>
@@ -7814,7 +7817,7 @@
       </c>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>202</v>
       </c>
@@ -7856,7 +7859,7 @@
       </c>
       <c r="N155" s="3"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>204</v>
       </c>
@@ -7898,7 +7901,7 @@
       </c>
       <c r="N156" s="3"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>205</v>
       </c>
@@ -7940,7 +7943,7 @@
       </c>
       <c r="N157" s="3"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>206</v>
       </c>
@@ -7982,7 +7985,7 @@
       </c>
       <c r="N158" s="3"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>207</v>
       </c>
@@ -8024,7 +8027,7 @@
       </c>
       <c r="N159" s="3"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>208</v>
       </c>
@@ -8066,7 +8069,7 @@
       </c>
       <c r="N160" s="3"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>209</v>
       </c>
@@ -8108,7 +8111,7 @@
       </c>
       <c r="N161" s="3"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>210</v>
       </c>
@@ -8150,7 +8153,7 @@
       </c>
       <c r="N162" s="3"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>211</v>
       </c>
@@ -8192,7 +8195,7 @@
       </c>
       <c r="N163" s="3"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>212</v>
       </c>
@@ -8234,7 +8237,7 @@
       </c>
       <c r="N164" s="3"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>214</v>
       </c>
@@ -8276,7 +8279,7 @@
       </c>
       <c r="N165" s="3"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>215</v>
       </c>
@@ -8318,7 +8321,7 @@
       </c>
       <c r="N166" s="3"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>216</v>
       </c>
@@ -8360,7 +8363,7 @@
       </c>
       <c r="N167" s="3"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>217</v>
       </c>
@@ -8402,7 +8405,7 @@
       </c>
       <c r="N168" s="3"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>218</v>
       </c>
@@ -8444,7 +8447,7 @@
       </c>
       <c r="N169" s="3"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>219</v>
       </c>
@@ -8486,7 +8489,7 @@
       </c>
       <c r="N170" s="3"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>220</v>
       </c>
@@ -8528,7 +8531,7 @@
       </c>
       <c r="N171" s="3"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>221</v>
       </c>
@@ -8570,7 +8573,7 @@
       </c>
       <c r="N172" s="3"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>222</v>
       </c>
@@ -8612,7 +8615,7 @@
       </c>
       <c r="N173" s="3"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>224</v>
       </c>
@@ -8654,7 +8657,7 @@
       </c>
       <c r="N174" s="3"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>225</v>
       </c>
@@ -8696,7 +8699,7 @@
       </c>
       <c r="N175" s="3"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>226</v>
       </c>
@@ -8738,7 +8741,7 @@
       </c>
       <c r="N176" s="3"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>227</v>
       </c>
@@ -8780,7 +8783,7 @@
       </c>
       <c r="N177" s="3"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>228</v>
       </c>
@@ -8822,7 +8825,7 @@
       </c>
       <c r="N178" s="3"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>229</v>
       </c>
@@ -8864,7 +8867,7 @@
       </c>
       <c r="N179" s="3"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>230</v>
       </c>
@@ -8906,7 +8909,7 @@
       </c>
       <c r="N180" s="3"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>231</v>
       </c>
@@ -8948,7 +8951,7 @@
       </c>
       <c r="N181" s="3"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
         <v>232</v>
       </c>
@@ -8990,7 +8993,7 @@
       </c>
       <c r="N182" s="3"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
         <v>234</v>
       </c>
@@ -9032,7 +9035,7 @@
       </c>
       <c r="N183" s="3"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
         <v>235</v>
       </c>
@@ -9074,7 +9077,7 @@
       </c>
       <c r="N184" s="3"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
         <v>236</v>
       </c>
@@ -9116,7 +9119,7 @@
       </c>
       <c r="N185" s="3"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
         <v>237</v>
       </c>
@@ -9158,7 +9161,7 @@
       </c>
       <c r="N186" s="3"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
         <v>238</v>
       </c>
@@ -9200,7 +9203,7 @@
       </c>
       <c r="N187" s="3"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
         <v>239</v>
       </c>
@@ -9242,7 +9245,7 @@
       </c>
       <c r="N188" s="3"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
         <v>240</v>
       </c>
@@ -9284,7 +9287,7 @@
       </c>
       <c r="N189" s="3"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
         <v>241</v>
       </c>
@@ -9326,7 +9329,7 @@
       </c>
       <c r="N190" s="3"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
         <v>242</v>
       </c>
@@ -9368,7 +9371,7 @@
       </c>
       <c r="N191" s="3"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
         <v>244</v>
       </c>
@@ -9410,7 +9413,7 @@
       </c>
       <c r="N192" s="3"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
         <v>245</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
         <v>246</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>247</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
         <v>248</v>
       </c>
@@ -9584,7 +9587,7 @@
       </c>
       <c r="N196" s="3"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
         <v>249</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
         <v>250</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
         <v>251</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
         <v>252</v>
       </c>
@@ -9758,7 +9761,7 @@
       </c>
       <c r="N200" s="3"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
         <v>253</v>
       </c>
@@ -9800,7 +9803,7 @@
       </c>
       <c r="N201" s="3"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>254</v>
       </c>
@@ -9842,7 +9845,7 @@
       </c>
       <c r="N202" s="3"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
         <v>255</v>
       </c>
@@ -9884,7 +9887,7 @@
       </c>
       <c r="N203" s="3"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
         <v>256</v>
       </c>
@@ -9926,7 +9929,7 @@
       </c>
       <c r="N204" s="3"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
         <v>257</v>
       </c>
@@ -9968,7 +9971,7 @@
       </c>
       <c r="N205" s="3"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
         <v>258</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
         <v>259</v>
       </c>
@@ -10056,7 +10059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
         <v>260</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
         <v>261</v>
       </c>
@@ -10142,7 +10145,7 @@
       </c>
       <c r="N209" s="3"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
         <v>263</v>
       </c>
@@ -10184,7 +10187,7 @@
       </c>
       <c r="N210" s="3"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
         <v>264</v>
       </c>
@@ -10226,7 +10229,7 @@
       </c>
       <c r="N211" s="3"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
         <v>265</v>
       </c>
@@ -10268,7 +10271,7 @@
       </c>
       <c r="N212" s="3"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
         <v>266</v>
       </c>
@@ -10310,7 +10313,7 @@
       </c>
       <c r="N213" s="3"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
         <v>267</v>
       </c>
@@ -10352,7 +10355,7 @@
       </c>
       <c r="N214" s="3"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
         <v>268</v>
       </c>
@@ -10394,7 +10397,7 @@
       </c>
       <c r="N215" s="3"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
         <v>269</v>
       </c>
@@ -10436,7 +10439,7 @@
       </c>
       <c r="N216" s="3"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
         <v>270</v>
       </c>
@@ -10495,17 +10498,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="3" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A28" si="0">CONCATENATE(B2,"-",C2,F2,"-",I2)</f>
         <v>EEB-RJ1-1</v>
@@ -10576,7 +10579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-2</v>
@@ -10612,7 +10615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-3</v>
@@ -10648,7 +10651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-4</v>
@@ -10684,7 +10687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-5</v>
@@ -10720,7 +10723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-6</v>
@@ -10756,7 +10759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-7</v>
@@ -10792,7 +10795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-8</v>
@@ -10828,7 +10831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ1-9</v>
@@ -10864,7 +10867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-1</v>
@@ -10900,7 +10903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-2</v>
@@ -10936,7 +10939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-3</v>
@@ -10972,7 +10975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-4</v>
@@ -11008,7 +11011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-5</v>
@@ -11044,7 +11047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-6</v>
@@ -11080,7 +11083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-7</v>
@@ -11116,7 +11119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-8</v>
@@ -11152,7 +11155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ2-9</v>
@@ -11188,7 +11191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-1</v>
@@ -11225,7 +11228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-2</v>
@@ -11262,7 +11265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-3</v>
@@ -11299,7 +11302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-4</v>
@@ -11336,7 +11339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-5</v>
@@ -11373,7 +11376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-6</v>
@@ -11410,7 +11413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-7</v>
@@ -11447,7 +11450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-8</v>
@@ -11484,7 +11487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EEB-RJ3-9</v>
@@ -11521,7 +11524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" ref="A29:A92" si="2">CONCATENATE(B29,"-",C29,F29,"-",I29)</f>
         <v>EEB-RJ4-1</v>
@@ -11558,7 +11561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-2</v>
@@ -11595,7 +11598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-3</v>
@@ -11632,7 +11635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-4</v>
@@ -11669,7 +11672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-5</v>
@@ -11706,7 +11709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-6</v>
@@ -11743,7 +11746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-7</v>
@@ -11780,7 +11783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-8</v>
@@ -11817,7 +11820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ4-9</v>
@@ -11854,7 +11857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-1</v>
@@ -11891,7 +11894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-2</v>
@@ -11928,7 +11931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-3</v>
@@ -11965,7 +11968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-4</v>
@@ -12002,7 +12005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-5</v>
@@ -12039,7 +12042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-6</v>
@@ -12076,7 +12079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-7</v>
@@ -12113,7 +12116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-8</v>
@@ -12150,7 +12153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ5-9</v>
@@ -12187,7 +12190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-1</v>
@@ -12224,7 +12227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-2</v>
@@ -12261,7 +12264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-3</v>
@@ -12298,7 +12301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-4</v>
@@ -12335,7 +12338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-5</v>
@@ -12372,7 +12375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-6</v>
@@ -12409,7 +12412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-7</v>
@@ -12446,7 +12449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-8</v>
@@ -12483,7 +12486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ6-9</v>
@@ -12520,7 +12523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-1</v>
@@ -12557,7 +12560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-2</v>
@@ -12594,7 +12597,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-3</v>
@@ -12631,7 +12634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-4</v>
@@ -12668,7 +12671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-5</v>
@@ -12705,7 +12708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-6</v>
@@ -12742,7 +12745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-7</v>
@@ -12779,7 +12782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-8</v>
@@ -12816,7 +12819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ7-9</v>
@@ -12853,7 +12856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-1</v>
@@ -12890,7 +12893,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-2</v>
@@ -12927,7 +12930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-3</v>
@@ -12964,7 +12967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-4</v>
@@ -13001,7 +13004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-5</v>
@@ -13038,7 +13041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-6</v>
@@ -13075,7 +13078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-7</v>
@@ -13112,7 +13115,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-8</v>
@@ -13149,7 +13152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ8-9</v>
@@ -13186,7 +13189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-1</v>
@@ -13223,7 +13226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-2</v>
@@ -13260,7 +13263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-3</v>
@@ -13297,7 +13300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-4</v>
@@ -13334,7 +13337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-5</v>
@@ -13371,7 +13374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-6</v>
@@ -13408,7 +13411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-7</v>
@@ -13445,7 +13448,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-8</v>
@@ -13482,7 +13485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ9-9</v>
@@ -13519,7 +13522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-1</v>
@@ -13556,7 +13559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-2</v>
@@ -13593,7 +13596,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-3</v>
@@ -13630,7 +13633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-4</v>
@@ -13667,7 +13670,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-5</v>
@@ -13704,7 +13707,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-6</v>
@@ -13741,7 +13744,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-7</v>
@@ -13778,7 +13781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-8</v>
@@ -13815,7 +13818,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ10-9</v>
@@ -13852,7 +13855,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f t="shared" si="2"/>
         <v>EEB-RJ11-1</v>
@@ -13889,7 +13892,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f t="shared" ref="A93:A118" si="4">CONCATENATE(B93,"-",C93,F93,"-",I93)</f>
         <v>EEB-RJ11-2</v>
@@ -13926,7 +13929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-3</v>
@@ -13963,7 +13966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-4</v>
@@ -14000,7 +14003,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-5</v>
@@ -14037,7 +14040,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-6</v>
@@ -14074,7 +14077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-7</v>
@@ -14111,7 +14114,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-8</v>
@@ -14148,7 +14151,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ11-9</v>
@@ -14185,7 +14188,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-1</v>
@@ -14222,7 +14225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-2</v>
@@ -14259,7 +14262,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-3</v>
@@ -14296,7 +14299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-4</v>
@@ -14333,7 +14336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-5</v>
@@ -14370,7 +14373,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-6</v>
@@ -14407,7 +14410,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-7</v>
@@ -14444,7 +14447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-8</v>
@@ -14481,7 +14484,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ12-9</v>
@@ -14518,7 +14521,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-1</v>
@@ -14555,7 +14558,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-2</v>
@@ -14592,7 +14595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-3</v>
@@ -14629,7 +14632,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-4</v>
@@ -14666,7 +14669,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-5</v>
@@ -14703,7 +14706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-6</v>
@@ -14740,7 +14743,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-7</v>
@@ -14777,7 +14780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-8</v>
@@ -14814,7 +14817,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" t="str">
         <f t="shared" si="4"/>
         <v>EEB-RJ13-9</v>
@@ -14864,17 +14867,17 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="11" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14909,7 +14912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2,"-",C2,F2,"-",I2)</f>
         <v>EEB-SC1-1</v>
@@ -14945,7 +14948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-2</v>
@@ -14981,7 +14984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-3</v>
@@ -15017,7 +15020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-4</v>
@@ -15053,7 +15056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-5</v>
@@ -15089,7 +15092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-6</v>
@@ -15125,7 +15128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-7</v>
@@ -15161,7 +15164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-8</v>
@@ -15197,7 +15200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC1-9</v>
@@ -15233,7 +15236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-1</v>
@@ -15271,7 +15274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-2</v>
@@ -15309,7 +15312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-3</v>
@@ -15347,7 +15350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-4</v>
@@ -15385,7 +15388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-5</v>
@@ -15423,7 +15426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-6</v>
@@ -15461,7 +15464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-7</v>
@@ -15499,7 +15502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-8</v>
@@ -15537,7 +15540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC2-9</v>
@@ -15575,7 +15578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-1</v>
@@ -15613,7 +15616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-2</v>
@@ -15651,7 +15654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-3</v>
@@ -15689,7 +15692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-4</v>
@@ -15727,7 +15730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-5</v>
@@ -15765,7 +15768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-6</v>
@@ -15803,7 +15806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-7</v>
@@ -15841,7 +15844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-8</v>
@@ -15879,7 +15882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC3-9</v>
@@ -15917,7 +15920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-1</v>
@@ -15955,7 +15958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-2</v>
@@ -15993,7 +15996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-3</v>
@@ -16031,7 +16034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-4</v>
@@ -16069,7 +16072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-5</v>
@@ -16107,7 +16110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-6</v>
@@ -16145,7 +16148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-7</v>
@@ -16183,7 +16186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-8</v>
@@ -16221,7 +16224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC4-9</v>
@@ -16259,7 +16262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-1</v>
@@ -16297,7 +16300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-2</v>
@@ -16335,7 +16338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-3</v>
@@ -16373,7 +16376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-4</v>
@@ -16411,7 +16414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-5</v>
@@ -16449,7 +16452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-6</v>
@@ -16487,7 +16490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-7</v>
@@ -16525,7 +16528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-8</v>
@@ -16563,7 +16566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC5-9</v>
@@ -16601,7 +16604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-1</v>
@@ -16639,7 +16642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-2</v>
@@ -16677,7 +16680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-3</v>
@@ -16715,7 +16718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-4</v>
@@ -16753,7 +16756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-5</v>
@@ -16791,7 +16794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-6</v>
@@ -16829,7 +16832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-7</v>
@@ -16867,7 +16870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-8</v>
@@ -16905,7 +16908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC6-9</v>
@@ -16943,7 +16946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-1</v>
@@ -16981,7 +16984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-2</v>
@@ -17019,7 +17022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-3</v>
@@ -17057,7 +17060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-4</v>
@@ -17095,7 +17098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-5</v>
@@ -17133,7 +17136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-6</v>
@@ -17171,7 +17174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-7</v>
@@ -17209,7 +17212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-8</v>
@@ -17247,7 +17250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC7-9</v>
@@ -17285,7 +17288,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>EEB-SC8-1</v>
@@ -17323,7 +17326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A100" si="4">CONCATENATE(B66,"-",C66,F66,"-",I66)</f>
         <v>EEB-SC8-2</v>
@@ -17361,7 +17364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-3</v>
@@ -17399,7 +17402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-4</v>
@@ -17437,7 +17440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-5</v>
@@ -17475,7 +17478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-6</v>
@@ -17513,7 +17516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-7</v>
@@ -17551,7 +17554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-8</v>
@@ -17589,7 +17592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC8-9</v>
@@ -17627,7 +17630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-1</v>
@@ -17665,7 +17668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-2</v>
@@ -17703,7 +17706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-3</v>
@@ -17741,7 +17744,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-4</v>
@@ -17779,7 +17782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-5</v>
@@ -17817,7 +17820,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-6</v>
@@ -17855,7 +17858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-7</v>
@@ -17893,7 +17896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-8</v>
@@ -17931,7 +17934,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC9-9</v>
@@ -17969,7 +17972,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-1</v>
@@ -18007,7 +18010,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-2</v>
@@ -18045,7 +18048,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-3</v>
@@ -18083,7 +18086,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-4</v>
@@ -18121,7 +18124,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-5</v>
@@ -18159,7 +18162,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-6</v>
@@ -18197,7 +18200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-7</v>
@@ -18235,7 +18238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-8</v>
@@ -18273,7 +18276,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC10-9</v>
@@ -18311,7 +18314,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-1</v>
@@ -18349,7 +18352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-2</v>
@@ -18387,7 +18390,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-3</v>
@@ -18425,7 +18428,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-4</v>
@@ -18463,7 +18466,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-5</v>
@@ -18501,7 +18504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-6</v>
@@ -18539,7 +18542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-7</v>
@@ -18577,7 +18580,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-8</v>
@@ -18615,7 +18618,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="str">
         <f t="shared" si="4"/>
         <v>EEB-SC11-9</v>
@@ -18664,12 +18667,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1777e6c5-de6a-4262-a223-b14c2573a4bd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ee0461fb-be2c-4e77-85c6-ef91a371d4d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18902,20 +18907,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1777e6c5-de6a-4262-a223-b14c2573a4bd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ee0461fb-be2c-4e77-85c6-ef91a371d4d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B5B5E59-8F84-4416-A204-11D7E054C7F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D981F6EC-CA4F-4A91-8787-AAEDCD0ADBA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1777e6c5-de6a-4262-a223-b14c2573a4bd"/>
+    <ds:schemaRef ds:uri="ee0461fb-be2c-4e77-85c6-ef91a371d4d7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18940,12 +18946,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D981F6EC-CA4F-4A91-8787-AAEDCD0ADBA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B5B5E59-8F84-4416-A204-11D7E054C7F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1777e6c5-de6a-4262-a223-b14c2573a4bd"/>
-    <ds:schemaRef ds:uri="ee0461fb-be2c-4e77-85c6-ef91a371d4d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>